--- a/preprocessing/dotacie_pre/dotacie_nase_2011.xlsx
+++ b/preprocessing/dotacie_pre/dotacie_nase_2011.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roman\Desktop\school\pridav\project\preprocessing\dotacie_pre\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C0EE998-24B8-4CCA-A319-657EC9894C3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0306C6BD-90BA-4832-8541-56DFD825EDD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="37">
   <si>
     <t>univerzita</t>
   </si>
@@ -66,9 +66,6 @@
     <t>studenti-denni</t>
   </si>
   <si>
-    <t>publikacie</t>
-  </si>
-  <si>
     <t>absolventi</t>
   </si>
   <si>
@@ -84,9 +81,6 @@
     <t>UK</t>
   </si>
   <si>
-    <t>UJPŠ</t>
-  </si>
-  <si>
     <t>PU</t>
   </si>
   <si>
@@ -108,9 +102,6 @@
     <t>STU</t>
   </si>
   <si>
-    <t>TU</t>
-  </si>
-  <si>
     <t>ŽU</t>
   </si>
   <si>
@@ -139,6 +130,21 @@
   </si>
   <si>
     <t>NA</t>
+  </si>
+  <si>
+    <t>UPJŠ</t>
+  </si>
+  <si>
+    <t>TUKE</t>
+  </si>
+  <si>
+    <t>TUZVO</t>
+  </si>
+  <si>
+    <t>publikacie 07711</t>
+  </si>
+  <si>
+    <t>publikacie 07712</t>
   </si>
 </sst>
 </file>
@@ -171,7 +177,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -223,17 +229,44 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="2"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normálna" xfId="0" builtinId="0"/>
@@ -514,10 +547,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O21"/>
+  <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2:P21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -530,14 +563,15 @@
     <col min="8" max="8" width="8.08984375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7.6328125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.08984375" customWidth="1"/>
-    <col min="11" max="11" width="9.1796875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.36328125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.6328125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.6328125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.54296875" customWidth="1"/>
+    <col min="16" max="17" width="16.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -581,12 +615,15 @@
         <v>13</v>
       </c>
       <c r="O1" t="s">
+        <v>35</v>
+      </c>
+      <c r="P1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>15</v>
       </c>
       <c r="B2">
         <v>77188587</v>
@@ -601,13 +638,13 @@
         <v>8006375</v>
       </c>
       <c r="F2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G2">
         <v>1559</v>
       </c>
       <c r="H2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I2" s="4">
         <v>27422</v>
@@ -615,16 +652,28 @@
       <c r="J2">
         <v>21919</v>
       </c>
-      <c r="K2">
-        <v>22180</v>
-      </c>
-      <c r="L2" s="2">
+      <c r="K2" s="2">
         <v>12369</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="L2">
+        <v>10861</v>
+      </c>
+      <c r="M2">
+        <v>9675</v>
+      </c>
+      <c r="N2" s="6">
+        <v>800848</v>
+      </c>
+      <c r="O2">
+        <v>20.710065110555291</v>
+      </c>
+      <c r="P2">
+        <v>26.035239728053273</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="B3">
         <v>22757216</v>
@@ -639,13 +688,13 @@
         <v>2466042</v>
       </c>
       <c r="F3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G3">
         <v>314</v>
       </c>
       <c r="H3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I3" s="5">
         <v>8699</v>
@@ -653,16 +702,28 @@
       <c r="J3">
         <v>7408</v>
       </c>
-      <c r="K3">
-        <v>5665</v>
-      </c>
-      <c r="L3" s="3">
+      <c r="K3" s="3">
         <v>3605</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="L3">
+        <v>1806</v>
+      </c>
+      <c r="M3">
+        <v>1657</v>
+      </c>
+      <c r="N3" s="7">
+        <v>126960</v>
+      </c>
+      <c r="O3">
+        <v>6.1932848765666453</v>
+      </c>
+      <c r="P3">
+        <v>9.0489366921845402</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B4">
         <v>18316144</v>
@@ -677,13 +738,13 @@
         <v>3960319</v>
       </c>
       <c r="F4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G4">
         <v>205</v>
       </c>
       <c r="H4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I4" s="5">
         <v>10571</v>
@@ -691,16 +752,28 @@
       <c r="J4">
         <v>7048</v>
       </c>
-      <c r="K4">
-        <v>7784</v>
-      </c>
-      <c r="L4" s="3">
+      <c r="K4" s="3">
         <v>5049</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="L4">
+        <v>1921</v>
+      </c>
+      <c r="M4">
+        <v>1928</v>
+      </c>
+      <c r="N4" s="7">
+        <v>154240</v>
+      </c>
+      <c r="O4">
+        <v>5.5854406855225598</v>
+      </c>
+      <c r="P4">
+        <v>4.1024637635546268</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B5">
         <v>7613364</v>
@@ -715,13 +788,13 @@
         <v>945202</v>
       </c>
       <c r="F5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G5">
         <v>77</v>
       </c>
       <c r="H5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I5" s="5">
         <v>5947</v>
@@ -729,16 +802,28 @@
       <c r="J5">
         <v>4650</v>
       </c>
-      <c r="K5">
-        <v>1846</v>
-      </c>
-      <c r="L5" s="3">
+      <c r="K5" s="3">
         <v>2806</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="L5">
+        <v>224</v>
+      </c>
+      <c r="M5">
+        <v>209</v>
+      </c>
+      <c r="N5" s="7">
+        <v>13952</v>
+      </c>
+      <c r="O5">
+        <v>1.7188138426288191</v>
+      </c>
+      <c r="P5">
+        <v>1.4000650603426721</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B6">
         <v>9159398</v>
@@ -753,13 +838,13 @@
         <v>647983</v>
       </c>
       <c r="F6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G6">
         <v>117</v>
       </c>
       <c r="H6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I6" s="5">
         <v>1873</v>
@@ -767,16 +852,28 @@
       <c r="J6">
         <v>1689</v>
       </c>
-      <c r="K6">
-        <v>2967</v>
-      </c>
-      <c r="L6" s="3">
+      <c r="K6" s="3">
         <v>270</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="L6">
+        <v>908</v>
+      </c>
+      <c r="M6">
+        <v>751</v>
+      </c>
+      <c r="N6" s="7">
+        <v>26048</v>
+      </c>
+      <c r="O6">
+        <v>2.1047779136107079</v>
+      </c>
+      <c r="P6">
+        <v>2.3749048787191156</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B7">
         <v>19265704</v>
@@ -791,13 +888,13 @@
         <v>2405707</v>
       </c>
       <c r="F7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G7">
         <v>242</v>
       </c>
       <c r="H7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I7" s="5">
         <v>12354</v>
@@ -805,16 +902,28 @@
       <c r="J7">
         <v>8268</v>
       </c>
-      <c r="K7">
-        <v>8547</v>
-      </c>
-      <c r="L7" s="3">
+      <c r="K7" s="3">
         <v>5559</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="L7">
+        <v>1552</v>
+      </c>
+      <c r="M7">
+        <v>1433</v>
+      </c>
+      <c r="N7" s="7">
+        <v>124080</v>
+      </c>
+      <c r="O7">
+        <v>6.568321107795871</v>
+      </c>
+      <c r="P7">
+        <v>5.3298454783514266</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B8">
         <v>18590413</v>
@@ -829,13 +938,13 @@
         <v>2751876</v>
       </c>
       <c r="F8" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G8">
         <v>252</v>
       </c>
       <c r="H8" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I8" s="5">
         <v>12349</v>
@@ -843,16 +952,28 @@
       <c r="J8">
         <v>7816</v>
       </c>
-      <c r="K8">
-        <v>8433</v>
-      </c>
-      <c r="L8" s="3">
+      <c r="K8" s="3">
         <v>5942</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="L8">
+        <v>2434</v>
+      </c>
+      <c r="M8">
+        <v>2225</v>
+      </c>
+      <c r="N8" s="7">
+        <v>164480</v>
+      </c>
+      <c r="O8">
+        <v>6.7918721682800758</v>
+      </c>
+      <c r="P8">
+        <v>5.3067798747159136</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B9">
         <v>10243014</v>
@@ -867,13 +988,13 @@
         <v>950338</v>
       </c>
       <c r="F9" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G9">
         <v>188</v>
       </c>
       <c r="H9" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I9" s="5">
         <v>7516</v>
@@ -881,16 +1002,22 @@
       <c r="J9">
         <v>4574</v>
       </c>
-      <c r="K9">
-        <v>3952</v>
-      </c>
-      <c r="L9" s="3">
+      <c r="K9" s="3">
         <v>3046</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="N9" s="7">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>3.3475002170759853</v>
+      </c>
+      <c r="P9">
+        <v>2.3442180881444039</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B10">
         <v>56943985</v>
@@ -905,13 +1032,13 @@
         <v>4696983</v>
       </c>
       <c r="F10" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G10">
         <v>1190</v>
       </c>
       <c r="H10" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I10" s="5">
         <v>18189</v>
@@ -919,16 +1046,28 @@
       <c r="J10">
         <v>17118</v>
       </c>
-      <c r="K10">
-        <v>20786</v>
-      </c>
-      <c r="L10" s="3">
+      <c r="K10" s="3">
         <v>9343</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="L10">
+        <v>6724</v>
+      </c>
+      <c r="M10">
+        <v>6552</v>
+      </c>
+      <c r="N10" s="7">
+        <v>533360</v>
+      </c>
+      <c r="O10">
+        <v>13.455852874656621</v>
+      </c>
+      <c r="P10">
+        <v>17.731568627650823</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="B11">
         <v>38957862</v>
@@ -943,13 +1082,13 @@
         <v>6536820</v>
       </c>
       <c r="F11" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G11">
         <v>554</v>
       </c>
       <c r="H11" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I11" s="5">
         <v>16319</v>
@@ -957,16 +1096,28 @@
       <c r="J11">
         <v>12919</v>
       </c>
-      <c r="K11">
-        <v>14791</v>
-      </c>
-      <c r="L11" s="3">
+      <c r="K11" s="3">
         <v>7481</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="L11">
+        <v>4984</v>
+      </c>
+      <c r="M11">
+        <v>5786</v>
+      </c>
+      <c r="N11" s="7">
+        <v>414400</v>
+      </c>
+      <c r="O11">
+        <v>6.6464054824609722</v>
+      </c>
+      <c r="P11">
+        <v>5.8880588604771011</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B12">
         <v>27056909</v>
@@ -981,13 +1132,13 @@
         <v>3796173</v>
       </c>
       <c r="F12" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G12">
         <v>392</v>
       </c>
       <c r="H12" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I12" s="5">
         <v>11715</v>
@@ -995,16 +1146,28 @@
       <c r="J12">
         <v>9217</v>
       </c>
-      <c r="K12">
-        <v>11895</v>
-      </c>
-      <c r="L12" s="3">
+      <c r="K12" s="3">
         <v>5519</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="L12">
+        <v>5044</v>
+      </c>
+      <c r="M12">
+        <v>4390</v>
+      </c>
+      <c r="N12" s="7">
+        <v>354448</v>
+      </c>
+      <c r="O12">
+        <v>4.423408602739844</v>
+      </c>
+      <c r="P12">
+        <v>3.1525182309402169</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B13">
         <v>7677563</v>
@@ -1019,13 +1182,13 @@
         <v>779454</v>
       </c>
       <c r="F13" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G13">
         <v>85</v>
       </c>
       <c r="H13" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I13" s="5">
         <v>5743</v>
@@ -1033,16 +1196,28 @@
       <c r="J13">
         <v>3259</v>
       </c>
-      <c r="K13">
-        <v>3566</v>
-      </c>
-      <c r="L13" s="3">
+      <c r="K13" s="3">
         <v>2927</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="L13">
+        <v>320</v>
+      </c>
+      <c r="M13">
+        <v>158</v>
+      </c>
+      <c r="N13" s="7">
+        <v>10048</v>
+      </c>
+      <c r="O13">
+        <v>1.9042370023029214</v>
+      </c>
+      <c r="P13">
+        <v>1.9044484800443038</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B14">
         <v>20861429</v>
@@ -1057,13 +1232,13 @@
         <v>3088214</v>
       </c>
       <c r="F14" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G14">
         <v>257</v>
       </c>
       <c r="H14" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I14" s="5">
         <v>12759</v>
@@ -1071,16 +1246,28 @@
       <c r="J14">
         <v>10065</v>
       </c>
-      <c r="K14">
-        <v>10827</v>
-      </c>
-      <c r="L14" s="3">
+      <c r="K14" s="3">
         <v>7727</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="L14">
+        <v>3530</v>
+      </c>
+      <c r="M14">
+        <v>3152</v>
+      </c>
+      <c r="N14" s="7">
+        <v>240288</v>
+      </c>
+      <c r="O14">
+        <v>6.0794340989111078</v>
+      </c>
+      <c r="P14">
+        <v>4.1435061778898126</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B15">
         <v>19237006</v>
@@ -1095,13 +1282,13 @@
         <v>2352864</v>
       </c>
       <c r="F15" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G15">
         <v>258</v>
       </c>
       <c r="H15" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I15" s="5">
         <v>9964</v>
@@ -1109,16 +1296,28 @@
       <c r="J15">
         <v>7079</v>
       </c>
-      <c r="K15">
-        <v>8582</v>
-      </c>
-      <c r="L15" s="3">
+      <c r="K15" s="3">
         <v>4726</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="L15">
+        <v>3028</v>
+      </c>
+      <c r="M15">
+        <v>2484</v>
+      </c>
+      <c r="N15" s="7">
+        <v>164768</v>
+      </c>
+      <c r="O15">
+        <v>4.5447115599695493</v>
+      </c>
+      <c r="P15">
+        <v>3.6575687681901488</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="B16">
         <v>11148942</v>
@@ -1133,13 +1332,13 @@
         <v>1407840</v>
       </c>
       <c r="F16" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G16">
         <v>153</v>
       </c>
       <c r="H16" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I16" s="5">
         <v>5235</v>
@@ -1147,16 +1346,28 @@
       <c r="J16">
         <v>3506</v>
       </c>
-      <c r="K16">
-        <v>4683</v>
-      </c>
-      <c r="L16" s="3">
+      <c r="K16" s="3">
         <v>2002</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="L16">
+        <v>1524</v>
+      </c>
+      <c r="M16">
+        <v>1460</v>
+      </c>
+      <c r="N16" s="7">
+        <v>88048</v>
+      </c>
+      <c r="O16">
+        <v>3.3143967250494373</v>
+      </c>
+      <c r="P16">
+        <v>2.4863669015117997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B17">
         <v>5599140</v>
@@ -1171,13 +1382,13 @@
         <v>201493</v>
       </c>
       <c r="F17" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G17">
         <v>61</v>
       </c>
       <c r="H17" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I17" s="5">
         <v>1052</v>
@@ -1185,16 +1396,22 @@
       <c r="J17">
         <v>997</v>
       </c>
-      <c r="K17">
-        <v>173</v>
-      </c>
-      <c r="L17" s="3">
+      <c r="K17" s="3">
         <v>613</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N17" s="7">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0.29790733085042526</v>
+      </c>
+      <c r="P17">
+        <v>0.22450245869520738</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B18">
         <v>4160394</v>
@@ -1209,13 +1426,13 @@
         <v>145736</v>
       </c>
       <c r="F18" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G18">
         <v>57</v>
       </c>
       <c r="H18" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I18" s="5">
         <v>687</v>
@@ -1223,16 +1440,22 @@
       <c r="J18">
         <v>660</v>
       </c>
-      <c r="K18">
-        <v>275</v>
-      </c>
-      <c r="L18" s="3">
+      <c r="K18" s="3">
         <v>386</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N18" s="7">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0.38768629512928776</v>
+      </c>
+      <c r="P18">
+        <v>0.10926502741819027</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B19">
         <v>3210870</v>
@@ -1247,13 +1470,13 @@
         <v>328497</v>
       </c>
       <c r="F19" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G19">
         <v>30</v>
       </c>
       <c r="H19" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I19" s="5">
         <v>629</v>
@@ -1261,16 +1484,28 @@
       <c r="J19">
         <v>590</v>
       </c>
-      <c r="K19">
-        <v>154</v>
-      </c>
-      <c r="L19" s="3">
+      <c r="K19" s="3">
         <v>362</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="L19">
+        <v>136</v>
+      </c>
+      <c r="M19">
+        <v>100</v>
+      </c>
+      <c r="N19" s="7">
+        <v>6400</v>
+      </c>
+      <c r="O19">
+        <v>0.3681743088524061</v>
+      </c>
+      <c r="P19">
+        <v>0.2194029459965714</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B20">
         <v>11854293</v>
@@ -1285,13 +1520,13 @@
         <v>1685056</v>
       </c>
       <c r="F20" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G20">
         <v>166</v>
       </c>
       <c r="H20" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I20" s="5">
         <v>7353</v>
@@ -1299,16 +1534,28 @@
       <c r="J20">
         <v>3991</v>
       </c>
-      <c r="K20">
-        <v>4746</v>
-      </c>
-      <c r="L20" s="3">
+      <c r="K20" s="3">
         <v>4482</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="L20">
+        <v>631</v>
+      </c>
+      <c r="M20">
+        <v>469</v>
+      </c>
+      <c r="N20" s="7">
+        <v>28992</v>
+      </c>
+      <c r="O20">
+        <v>4.8638326600784234</v>
+      </c>
+      <c r="P20">
+        <v>3.9508998602618148</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B21">
         <v>2708416</v>
@@ -1323,13 +1570,13 @@
         <v>591838</v>
       </c>
       <c r="F21" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G21">
         <v>9</v>
       </c>
       <c r="H21" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I21" s="5">
         <v>2403</v>
@@ -1337,11 +1584,23 @@
       <c r="J21">
         <v>1561</v>
       </c>
-      <c r="K21">
-        <v>755</v>
-      </c>
-      <c r="L21" s="3">
+      <c r="K21" s="3">
         <v>867</v>
+      </c>
+      <c r="L21">
+        <v>513</v>
+      </c>
+      <c r="M21">
+        <v>467</v>
+      </c>
+      <c r="N21" s="8">
+        <v>37440</v>
+      </c>
+      <c r="O21">
+        <v>0.69387713696304487</v>
+      </c>
+      <c r="P21">
+        <v>0.58944009685803245</v>
       </c>
     </row>
   </sheetData>
